--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBDE350-959C-B741-9EF1-45D5EDF287C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B17CB-B8AD-704F-8B9B-CBF790F4C393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57680" yWindow="14800" windowWidth="28040" windowHeight="17440" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="52780" yWindow="5400" windowWidth="36260" windowHeight="28860" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -467,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,8 +963,11 @@
       <c r="B34">
         <v>-121.375</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>17</v>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -968,8 +977,11 @@
       <c r="B35">
         <v>-121.125</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>17</v>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1054,8 +1066,11 @@
       <c r="B42">
         <v>-120.875</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>17</v>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,7 +1145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>37.625</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>37.875</v>
       </c>
@@ -1152,18 +1167,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>37.875</v>
       </c>
       <c r="B51">
         <v>-121.125</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>37.875</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>37.875</v>
       </c>
@@ -1185,18 +1203,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38.125</v>
       </c>
       <c r="B54">
         <v>-121.375</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38.125</v>
       </c>
@@ -1207,29 +1228,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38.125</v>
       </c>
       <c r="B56">
         <v>-120.875</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38.125</v>
       </c>
       <c r="B57">
         <v>-120.625</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38.375</v>
       </c>
@@ -1240,7 +1267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38.375</v>
       </c>
@@ -1251,7 +1278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38.375</v>
       </c>
@@ -1262,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38.375</v>
       </c>
@@ -1273,13 +1300,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>COUNT(A2:A61)*644</f>
         <v>38640</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B17CB-B8AD-704F-8B9B-CBF790F4C393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B722C8-174F-1446-B191-109CAB8F79C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52780" yWindow="5400" windowWidth="36260" windowHeight="28860" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="62300" yWindow="4700" windowWidth="36260" windowHeight="28860" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidationAUC" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -94,6 +96,30 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Supervised Baseline - Upsampled, InceptionV3</t>
+  </si>
+  <si>
+    <t>Supervised - 13% Positive Class</t>
+  </si>
+  <si>
+    <t>Supervised - 3% Positive Class</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Peak Validation AUC</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 13% Positive Class</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class</t>
+  </si>
+  <si>
+    <t>Supervised - 100% Positive Class</t>
   </si>
 </sst>
 </file>
@@ -172,6 +198,1019 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Preliminary Comparison of Validation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Set Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E042-A94A-9A5D-0AA0BFE4F67A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E042-A94A-9A5D-0AA0BFE4F67A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E042-A94A-9A5D-0AA0BFE4F67A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E042-A94A-9A5D-0AA0BFE4F67A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Supervised Baseline - Upsampled, InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Supervised - 100% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Supervised - 13% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Supervised - 3% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 13% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E042-A94A-9A5D-0AA0BFE4F67A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="584365327"/>
+        <c:axId val="584366959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="584365327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584366959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584366959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584365327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{25B66696-3D4D-6746-96A7-EB60B704FBCD}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="177" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8671393" cy="6282336"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57B58F4-6FF7-8945-A3DF-8B19D7DA877D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A18" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,4 +2349,79 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B722C8-174F-1446-B191-109CAB8F79C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1222A-18F5-5846-945C-4EF56C4DEBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62300" yWindow="4700" windowWidth="36260" windowHeight="28860" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="7140" yWindow="1360" windowWidth="36260" windowHeight="28340" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
     <sheet name="ValidationAUC" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -89,9 +89,6 @@
     <t>DECEMBER</t>
   </si>
   <si>
-    <t>MARIA</t>
-  </si>
-  <si>
     <t>APRIL</t>
   </si>
   <si>
@@ -120,6 +117,24 @@
   </si>
   <si>
     <t>Supervised - 100% Positive Class</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 25% Intensity</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 75% Intensity</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 100% Intensity</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - H1@512</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - H2@128</t>
   </si>
 </sst>
 </file>
@@ -175,13 +190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -221,7 +235,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -234,11 +248,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Preliminary Comparison of Validation</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Set Results</a:t>
             </a:r>
           </a:p>
@@ -257,7 +279,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -345,7 +367,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -366,7 +388,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -412,10 +434,10 @@
                   <c:v>Supervised - 13% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Supervised - 3% Positive Class</c:v>
+                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 13% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 13% Positive Class</c:v>
+                  <c:v>Supervised - 3% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class</c:v>
@@ -439,13 +461,13 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,10 +521,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -542,6 +561,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Validation Set AUC </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -558,12 +636,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -621,6 +696,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1211,6 +1287,119 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76994</cdr:x>
+      <cdr:y>0.17646</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86799</cdr:x>
+      <cdr:y>0.23927</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Right Brace 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A5BCAB-9A70-D846-962A-243601A5B8A0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="6904278" y="880750"/>
+          <a:ext cx="394633" cy="850254"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.77367</cdr:x>
+      <cdr:y>0.25241</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88868</cdr:x>
+      <cdr:y>0.36319</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D3236-8A03-0A44-8237-8BB186E4F9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6708758" y="1585706"/>
+          <a:ext cx="997345" cy="695988"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SimCLR     Pre-training</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Benefit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A32" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1737,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1593,7 +1782,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1806,8 +1995,8 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1879,7 +2068,7 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2030,8 +2219,11 @@
       <c r="B36">
         <v>-120.875</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>17</v>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2041,8 +2233,11 @@
       <c r="B37">
         <v>-120.625</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>17</v>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2080,8 +2275,11 @@
       <c r="B40">
         <v>-121.375</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>17</v>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2091,11 +2289,14 @@
       <c r="B41">
         <v>-121.125</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>17</v>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2119,8 +2320,11 @@
       <c r="B43">
         <v>-120.625</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>17</v>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2134,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2158,8 +2362,11 @@
       <c r="B46">
         <v>-121.375</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>17</v>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2169,7 +2376,10 @@
       <c r="B47">
         <v>-121.125</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2180,8 +2390,11 @@
       <c r="B48">
         <v>-120.875</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>17</v>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2191,8 +2404,11 @@
       <c r="B49">
         <v>-120.625</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>17</v>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,8 +2418,11 @@
       <c r="B50">
         <v>-121.375</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>17</v>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2227,8 +2446,11 @@
       <c r="B52">
         <v>-120.875</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>17</v>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2238,8 +2460,11 @@
       <c r="B53">
         <v>-120.625</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>17</v>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2263,8 +2488,11 @@
       <c r="B55">
         <v>-121.125</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>17</v>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2302,8 +2530,11 @@
       <c r="B58">
         <v>-121.375</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>17</v>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,8 +2544,11 @@
       <c r="B59">
         <v>-121.125</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>17</v>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2324,7 +2558,10 @@
       <c r="B60">
         <v>-120.875</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2335,8 +2572,11 @@
       <c r="B61">
         <v>-120.625</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>17</v>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2353,29 +2593,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0.97499999999999998</v>
@@ -2383,7 +2623,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.95</v>
@@ -2391,7 +2631,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0.91</v>
@@ -2399,26 +2639,74 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>0.91500000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.91300000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1222A-18F5-5846-945C-4EF56C4DEBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425ABE6C-C04E-934C-814F-DB68CEDBE53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1360" windowWidth="36260" windowHeight="28340" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="57340" yWindow="8460" windowWidth="36260" windowHeight="26680" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -135,13 +135,98 @@
   </si>
   <si>
     <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - H2@128</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - 0.20 Shift</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - 0.10 Shift</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - Top Layer FT</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - Full FT - 1e-5</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - FT PH - 1e-5</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - FT PH (half) - 1e-5</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - FT PH (half) - 5e-5</t>
+  </si>
+  <si>
+    <r>
+      <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity -  20%</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Zoom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity -  40%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Zoom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity -  40%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Zoom</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 90 rot</t>
+    </r>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - 0.1 Temp</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - 0.3 Temp</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - 0.3 Temp - 40% Zoom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +247,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,13 +288,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +557,10 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.8</c:v>
@@ -1702,7 +1801,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2593,15 +2692,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2634,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.91</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2642,7 +2741,7 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.91500000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2709,7 +2808,112 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425ABE6C-C04E-934C-814F-DB68CEDBE53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD803FA0-BED0-DA40-9BDC-3D75F11A994E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57340" yWindow="8460" windowWidth="36260" windowHeight="26680" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="59980" yWindow="7720" windowWidth="36260" windowHeight="26680" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class - 50% Intensity - 0.3 Temp - 40% Zoom</t>
+  </si>
+  <si>
+    <t>Plotted</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 1% Positive Class</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 1% Positive Class - 50% Intensity - 0.3 Temp</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +412,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7713087159121951E-2"/>
+          <c:y val="8.4854264401012611E-2"/>
+          <c:w val="0.93921968477267725"/>
+          <c:h val="0.80800724443901117"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -445,7 +471,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -466,7 +492,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -487,7 +513,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -502,27 +528,11 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Supervised Baseline - Upsampled, InceptionV3</c:v>
                 </c:pt>
@@ -530,26 +540,23 @@
                   <c:v>Supervised - 100% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Supervised - 13% Positive Class</c:v>
+                  <c:v>Supervised - 3% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 13% Positive Class</c:v>
+                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Supervised - 3% Positive Class</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class</c:v>
+                  <c:v>SimCLR Pretrain (20% training set) and Finetuned - 1% Positive Class</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.97499999999999998</c:v>
                 </c:pt>
@@ -557,16 +564,13 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.91400000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91600000000000004</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91400000000000003</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,42 +598,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="584366959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1392,12 +1366,70 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76994</cdr:x>
-      <cdr:y>0.17646</cdr:y>
+      <cdr:x>0.60569</cdr:x>
+      <cdr:y>0.46027</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86799</cdr:x>
-      <cdr:y>0.23927</cdr:y>
+      <cdr:x>0.83738</cdr:x>
+      <cdr:y>0.50596</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D3236-8A03-0A44-8237-8BB186E4F9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5252204" y="2891580"/>
+          <a:ext cx="2009040" cy="287007"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SimCLR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Pre-training</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Benefit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61024</cdr:x>
+      <cdr:y>0.36719</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.81256</cdr:x>
+      <cdr:y>0.43001</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1412,8 +1444,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="6904278" y="880750"/>
-          <a:ext cx="394633" cy="850254"/>
+          <a:off x="5971510" y="1626967"/>
+          <a:ext cx="394633" cy="1754323"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
           <a:avLst/>
@@ -1450,19 +1482,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77367</cdr:x>
-      <cdr:y>0.25241</cdr:y>
+      <cdr:x>0.05213</cdr:x>
+      <cdr:y>0.13934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.88868</cdr:x>
-      <cdr:y>0.36319</cdr:y>
+      <cdr:x>0.80345</cdr:x>
+      <cdr:y>0.18616</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
+        <cdr:cNvPr id="4" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D3236-8A03-0A44-8237-8BB186E4F9D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D4BA61-6B38-EE43-8FCE-B7AEAEF627B0}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1470,15 +1502,12 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6708758" y="1585706"/>
-          <a:ext cx="997345" cy="695988"/>
+          <a:off x="452035" y="875368"/>
+          <a:ext cx="6515028" cy="294180"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
       </cdr:spPr>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
@@ -1486,14 +1515,538 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>SimCLR     Pre-training</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none"/>
+            <a:t>SimCLR</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> Benefit</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0"/>
+            <a:t> 20% of Training Data: </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none"/>
+            <a:t>Finetuned</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0"/>
+            <a:t> with 64 labeled examples</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03151</cdr:x>
+      <cdr:y>0.30275</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78283</cdr:x>
+      <cdr:y>0.34958</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC3E299-72E6-914C-9F36-924437DD1B30}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="273229" y="1901986"/>
+          <a:ext cx="6515028" cy="294180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SimCLR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 20% of Training Data: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Finetuned</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> with 128 labeled examples</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04385</cdr:x>
+      <cdr:y>0.46379</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60073</cdr:x>
+      <cdr:y>0.51062</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB348377-1055-BD4F-872F-F19B3C0E5AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="380282" y="2913681"/>
+          <a:ext cx="4828871" cy="294180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Supervised</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Model with 128 labeled examples (no pretrain)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0464</cdr:x>
+      <cdr:y>0.62483</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74553</cdr:x>
+      <cdr:y>0.67165</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A249CD-A756-A64F-AEEA-16A998B5EE22}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="402382" y="3925376"/>
+          <a:ext cx="6062420" cy="294180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Supervised</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Model with 9942 examples - all positive examples, balanced (no pretrain)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08281</cdr:x>
+      <cdr:y>0.78815</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85558</cdr:x>
+      <cdr:y>0.83498</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FA6B27-F2DA-EC40-ACCA-9BBCF09AF0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="718088" y="4951421"/>
+          <a:ext cx="6701007" cy="294180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Supervised Baseline</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> with 49,710 examples - 5x upsampling of positive class, balanced (no pretrain)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -1798,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,7 +2362,7 @@
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +2375,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>35.125</v>
       </c>
@@ -1839,8 +2395,11 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>35.125</v>
       </c>
@@ -1853,8 +2412,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>35.125</v>
       </c>
@@ -1867,8 +2429,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35.125</v>
       </c>
@@ -1884,8 +2449,11 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>35.375</v>
       </c>
@@ -1898,8 +2466,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>35.375</v>
       </c>
@@ -1912,8 +2483,11 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>35.375</v>
       </c>
@@ -1926,8 +2500,11 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35.375</v>
       </c>
@@ -1940,8 +2517,11 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>35.625</v>
       </c>
@@ -1954,8 +2534,11 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>35.625</v>
       </c>
@@ -1968,8 +2551,11 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35.625</v>
       </c>
@@ -1982,8 +2568,11 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>35.625</v>
       </c>
@@ -1996,8 +2585,11 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>35.875</v>
       </c>
@@ -2010,8 +2602,11 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>35.875</v>
       </c>
@@ -2024,8 +2619,11 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>35.875</v>
       </c>
@@ -2038,8 +2636,11 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>35.875</v>
       </c>
@@ -2052,8 +2653,11 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36.125</v>
       </c>
@@ -2066,8 +2670,11 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>36.125</v>
       </c>
@@ -2080,8 +2687,11 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36.125</v>
       </c>
@@ -2097,8 +2707,11 @@
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>36.125</v>
       </c>
@@ -2111,8 +2724,11 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>36.375</v>
       </c>
@@ -2125,8 +2741,11 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>36.375</v>
       </c>
@@ -2139,8 +2758,11 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>36.375</v>
       </c>
@@ -2153,8 +2775,11 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>36.375</v>
       </c>
@@ -2170,8 +2795,11 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>36.625</v>
       </c>
@@ -2184,8 +2812,11 @@
       <c r="D26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>36.625</v>
       </c>
@@ -2198,8 +2829,11 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>36.625</v>
       </c>
@@ -2212,8 +2846,11 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>36.625</v>
       </c>
@@ -2226,8 +2863,11 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>36.875</v>
       </c>
@@ -2240,8 +2880,11 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>36.875</v>
       </c>
@@ -2254,8 +2897,11 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>36.875</v>
       </c>
@@ -2268,8 +2914,11 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36.875</v>
       </c>
@@ -2282,8 +2931,11 @@
       <c r="D33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>37.125</v>
       </c>
@@ -2296,8 +2948,11 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>37.125</v>
       </c>
@@ -2307,11 +2962,17 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>37.125</v>
       </c>
@@ -2324,8 +2985,11 @@
       <c r="D36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37.125</v>
       </c>
@@ -2338,8 +3002,11 @@
       <c r="D37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37.125</v>
       </c>
@@ -2352,8 +3019,11 @@
       <c r="D38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37.125</v>
       </c>
@@ -2366,8 +3036,11 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37.375</v>
       </c>
@@ -2380,8 +3053,11 @@
       <c r="D40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37.375</v>
       </c>
@@ -2397,8 +3073,11 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37.375</v>
       </c>
@@ -2411,8 +3090,11 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>37.375</v>
       </c>
@@ -2425,8 +3107,11 @@
       <c r="D43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>37.375</v>
       </c>
@@ -2439,8 +3124,11 @@
       <c r="D44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>37.375</v>
       </c>
@@ -2453,8 +3141,11 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37.625</v>
       </c>
@@ -2467,8 +3158,11 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>37.625</v>
       </c>
@@ -2481,8 +3175,11 @@
       <c r="D47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>37.625</v>
       </c>
@@ -2495,8 +3192,11 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>37.625</v>
       </c>
@@ -2509,8 +3209,11 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>37.875</v>
       </c>
@@ -2523,8 +3226,11 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>37.875</v>
       </c>
@@ -2537,8 +3243,11 @@
       <c r="D51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>37.875</v>
       </c>
@@ -2551,8 +3260,11 @@
       <c r="D52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>37.875</v>
       </c>
@@ -2562,11 +3274,17 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38.125</v>
       </c>
@@ -2579,8 +3297,11 @@
       <c r="D54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38.125</v>
       </c>
@@ -2593,8 +3314,11 @@
       <c r="D55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38.125</v>
       </c>
@@ -2607,8 +3331,11 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38.125</v>
       </c>
@@ -2621,8 +3348,11 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38.375</v>
       </c>
@@ -2636,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38.375</v>
       </c>
@@ -2650,7 +3380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38.375</v>
       </c>
@@ -2664,7 +3394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38.375</v>
       </c>
@@ -2678,7 +3408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>COUNT(A2:A61)*644</f>
         <v>38640</v>
@@ -2692,10 +3422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2730,103 +3460,95 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>0.91400000000000003</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>0.91600000000000004</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.91400000000000003</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>0.90600000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>0.91400000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0.88800000000000001</v>
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.90900000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>0.91300000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0.91400000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>0.90500000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>0.91400000000000003</v>
@@ -2834,81 +3556,105 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>0.90400000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>0.90800000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>0.91100000000000003</v>
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B32">
+      <c r="B36">
         <v>0.91500000000000004</v>
       </c>
     </row>

--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD803FA0-BED0-DA40-9BDC-3D75F11A994E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928C416-4FBE-EA4A-89A4-542AF3B1CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59980" yWindow="7720" windowWidth="36260" windowHeight="26680" activeTab="2" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="18620" yWindow="3060" windowWidth="30380" windowHeight="19240" activeTab="4" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
     <sheet name="ValidationAUC" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="ScatterPlot" sheetId="5" r:id="rId3"/>
+    <sheet name="BarChart" sheetId="6" r:id="rId4"/>
+    <sheet name="SimpleTable" sheetId="4" r:id="rId5"/>
+    <sheet name="Sensitivities" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="86">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -230,11 +233,125 @@
   <si>
     <t>SimCLR Pretrain (20% training set) and Finetuned - 1% Positive Class - 50% Intensity - 0.3 Temp</t>
   </si>
+  <si>
+    <t>Supervised - 1% Positive Class</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 100% Positive Class - 50% Intensity - 0.3 Temp</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 100% Positive Class - 50% Intensity - 0.3 Temp - Full Finetune</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 1% Positive Class - 50% Intensity - 0.3 Temp - 0.2 Blur</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - Upsampled Positive Class - 50% Intensity - 0.3 Temp</t>
+  </si>
+  <si>
+    <t>Upsampled 5x</t>
+  </si>
+  <si>
+    <t>100% Positive Class</t>
+  </si>
+  <si>
+    <t>3% Positive Class</t>
+  </si>
+  <si>
+    <t>1% Positive Class</t>
+  </si>
+  <si>
+    <t>13% Positive Class</t>
+  </si>
+  <si>
+    <t>Supervised</t>
+  </si>
+  <si>
+    <t>20% Training Data</t>
+  </si>
+  <si>
+    <t>100% Training Data</t>
+  </si>
+  <si>
+    <t>Positive Examples</t>
+  </si>
+  <si>
+    <t>log(Positive Examples)</t>
+  </si>
+  <si>
+    <t>Full Finetune</t>
+  </si>
+  <si>
+    <t>SimCLR Pretrain (20% training set) and Finetuned - 13% Positive Class - 50% Intensity - 0.3 Temp</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 2 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 4 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 6 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 8 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 10 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 12 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 14 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 16 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 18 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent Finetune after 20 Epochs</t>
+  </si>
+  <si>
+    <t>1 Percent</t>
+  </si>
+  <si>
+    <t>13 percent</t>
+  </si>
+  <si>
+    <t>3 percent</t>
+  </si>
+  <si>
+    <t>100% Pretrain - Jitter 0.50, Temp 0.3, 1e-4 LR, Dropout 0.50</t>
+  </si>
+  <si>
+    <t>100% Pretrain - Jitter 0.50, Temp 0.3, 1e-4 LR, Dropout 0.75, 150 epochs, 25 patience</t>
+  </si>
+  <si>
+    <t>100% Pretrain - Jitter 0.50, Temp 0.3, 5e-5 LR, Dropout 0.50</t>
+  </si>
+  <si>
+    <t>100% Pretrain - Jitter 0.50, Temp 0.3, 1e-4 LR, Dropout 0.25, Batch Size 32</t>
+  </si>
+  <si>
+    <t>Full Finetune w/ 1e-5 LR</t>
+  </si>
+  <si>
+    <t>lr 0.000001</t>
+  </si>
+  <si>
+    <t>lr 1e-5 phft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -303,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +631,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -524,15 +647,15 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E042-A94A-9A5D-0AA0BFE4F67A}"/>
+                <c16:uniqueId val="{00000007-FDBD-4D4C-87E8-772537D0045C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:f>Sensitivities!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Supervised Baseline - Upsampled, InceptionV3</c:v>
                 </c:pt>
@@ -546,6 +669,9 @@
                   <c:v>SimCLR Pretrain (20% training set) and Finetuned - 3% Positive Class</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Supervised - 1% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>SimCLR Pretrain (20% training set) and Finetuned - 1% Positive Class</c:v>
                 </c:pt>
               </c:strCache>
@@ -553,23 +679,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:f>Sensitivities!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.97499999999999998</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>0.96499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.80200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.90600000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -773,7 +902,978 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11970054102623698"/>
+          <c:y val="2.9829738427446746E-2"/>
+          <c:w val="0.86418574715083152"/>
+          <c:h val="0.92754266879407465"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleTable!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Supervised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SimpleTable!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SimpleTable!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C39B-4B4F-B5BB-04FB02CF4AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SimCLR Pre-trained with 20% of Training Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SimpleTable!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SimpleTable!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C39B-4B4F-B5BB-04FB02CF4AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="698581407"/>
+        <c:axId val="628047567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="698581407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="628047567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628047567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>Validation Set Area Under Curve</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698581407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22062001456808736"/>
+          <c:y val="0.70528919651109334"/>
+          <c:w val="0.53825149501680292"/>
+          <c:h val="0.16339161434314156"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11026681054046682"/>
+          <c:y val="7.9892494841884057E-2"/>
+          <c:w val="0.87361947763660175"/>
+          <c:h val="0.82702566411239842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleTable!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Supervised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SimpleTable!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Upsampled 5x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1% Positive Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimpleTable!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7EB-184B-AE29-E52307EC608C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SimCLR Pre-trained with 20% Training Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SimpleTable!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Upsampled 5x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3% Positive Class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1% Positive Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimpleTable!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7EB-184B-AE29-E52307EC608C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="680357711"/>
+        <c:axId val="680286751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="680357711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680286751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680286751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>Validation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+                  <a:t> Set Area Under ROC Curve</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680357711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11944955006756339"/>
+          <c:y val="1.6368527300233349E-2"/>
+          <c:w val="0.81090680288155137"/>
+          <c:h val="5.2275377373648034E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1318,11 +2418,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{25B66696-3D4D-6746-96A7-EB60B704FBCD}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="177" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0CB8650A-D2F6-0C46-811E-93ACCD0D5825}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="219" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F37ED471-496A-1446-BC89-7534D3463F3C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="219" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1366,12 +3507,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.60569</cdr:x>
-      <cdr:y>0.46027</cdr:y>
+      <cdr:x>0.49564</cdr:x>
+      <cdr:y>0.27753</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.83738</cdr:x>
-      <cdr:y>0.50596</cdr:y>
+      <cdr:x>0.72733</cdr:x>
+      <cdr:y>0.32322</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1386,7 +3527,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5252204" y="2891580"/>
+          <a:off x="4297910" y="1743558"/>
           <a:ext cx="2009040" cy="287007"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1424,12 +3565,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.61024</cdr:x>
-      <cdr:y>0.36719</cdr:y>
+      <cdr:x>0.60942</cdr:x>
+      <cdr:y>0.46199</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.81256</cdr:x>
-      <cdr:y>0.43001</cdr:y>
+      <cdr:x>0.81173</cdr:x>
+      <cdr:y>0.5248</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1444,7 +3585,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="5971510" y="1626967"/>
+          <a:off x="5964335" y="2222504"/>
           <a:ext cx="394633" cy="1754323"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
@@ -1482,12 +3623,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05213</cdr:x>
-      <cdr:y>0.13934</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.13134</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.80345</cdr:x>
-      <cdr:y>0.18616</cdr:y>
+      <cdr:x>0.75132</cdr:x>
+      <cdr:y>0.17817</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1502,7 +3643,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="452035" y="875368"/>
+          <a:off x="0" y="825142"/>
           <a:ext cx="6515028" cy="294180"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1528,7 +3669,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0"/>
-            <a:t> with 64 labeled examples</a:t>
+            <a:t> with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t>64</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0"/>
+            <a:t> labeled examples</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" u="none"/>
         </a:p>
@@ -1537,12 +3686,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.03151</cdr:x>
-      <cdr:y>0.30275</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.40097</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.78283</cdr:x>
-      <cdr:y>0.34958</cdr:y>
+      <cdr:x>0.70416</cdr:x>
+      <cdr:y>0.4478</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1557,8 +3706,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="273229" y="1901986"/>
-          <a:ext cx="6515028" cy="294180"/>
+          <a:off x="0" y="2519048"/>
+          <a:ext cx="6106045" cy="294180"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1663,7 +3812,23 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> with 128 labeled examples</a:t>
+            <a:t> with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>128</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> labeled examples</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" u="none">
             <a:solidFill>
@@ -1676,12 +3841,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.04385</cdr:x>
-      <cdr:y>0.46379</cdr:y>
+      <cdr:x>0.04965</cdr:x>
+      <cdr:y>0.53232</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60073</cdr:x>
-      <cdr:y>0.51062</cdr:y>
+      <cdr:x>0.60652</cdr:x>
+      <cdr:y>0.57914</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1696,7 +3861,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="380282" y="2913681"/>
+          <a:off x="430509" y="3344190"/>
           <a:ext cx="4828871" cy="294180"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1799,12 +3964,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.0464</cdr:x>
-      <cdr:y>0.62483</cdr:y>
+      <cdr:x>0.05054</cdr:x>
+      <cdr:y>0.66594</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.74553</cdr:x>
-      <cdr:y>0.67165</cdr:y>
+      <cdr:x>0.74967</cdr:x>
+      <cdr:y>0.71277</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1819,7 +3984,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="402382" y="3925376"/>
+          <a:off x="438258" y="4183681"/>
           <a:ext cx="6062420" cy="294180"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1922,12 +4087,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08281</cdr:x>
-      <cdr:y>0.78815</cdr:y>
+      <cdr:x>0.08364</cdr:x>
+      <cdr:y>0.80186</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85558</cdr:x>
-      <cdr:y>0.83498</cdr:y>
+      <cdr:x>0.85641</cdr:x>
+      <cdr:y>0.84868</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1942,7 +4107,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="718088" y="4951421"/>
+          <a:off x="725263" y="5037523"/>
           <a:ext cx="6701007" cy="294180"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -2051,7 +4216,467 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02896</cdr:x>
+      <cdr:y>0.26164</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42862</cdr:x>
+      <cdr:y>0.30846</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F590439-2C51-864F-9D76-AA59553E1E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="251130" y="1643682"/>
+          <a:ext cx="3465593" cy="294180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Supervised</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> with 64 labeled examples (no pretrain)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41793</cdr:x>
+      <cdr:y>0.18169</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79932</cdr:x>
+      <cdr:y>0.2445</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Right Brace 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A13855-ACB8-0F40-9DB3-191140818DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="5080285" y="-314844"/>
+          <a:ext cx="394633" cy="3307166"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60824</cdr:x>
+      <cdr:y>0.53917</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83993</cdr:x>
+      <cdr:y>0.58485</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C326CAEE-8605-BC43-BE36-AB355A1C8925}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5274303" y="3387241"/>
+          <a:ext cx="2009040" cy="287007"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SimCLR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Pre-training</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Benefit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669635" cy="6286210"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF42DF3F-05C3-314E-A0CB-731CD4B3D873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669635" cy="6286210"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5BCFE0-EB4C-D940-820B-EC5EAD37A124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2353,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A22" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2965,8 +5590,11 @@
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -3421,16 +6049,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667A3AE2-AF9E-0C45-A289-E5DFD881FFDB}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="58.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>4971</v>
+      </c>
+      <c r="C2" s="6">
+        <f>LOG(B2)</f>
+        <v>3.696443763138999</v>
+      </c>
+      <c r="D2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.9677</v>
+      </c>
+      <c r="G2">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.94450000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>4971</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C6" si="0">LOG(B3)</f>
+        <v>3.696443763138999</v>
+      </c>
+      <c r="D3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.94</v>
+      </c>
+      <c r="F3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>320</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5051499783199058</v>
+      </c>
+      <c r="D4">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.92</v>
+      </c>
+      <c r="F4">
+        <v>0.92</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.91659999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="D5">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.914157</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.914157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="D6">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.90390000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="96.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3447,7 +6268,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0.97499999999999998</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3455,7 +6276,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.95</v>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3463,7 +6284,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3476,47 +6297,47 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.91400000000000003</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0.91400000000000003</v>
@@ -3524,138 +6345,583 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>0.89900000000000002</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>0.90400000000000003</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>0.90800000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
-        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
         <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>0.94</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
+      <c r="B42">
         <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.91902399999999995</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.8972</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.91690000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.91390000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.89690000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0.8992</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.91255799999999998</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.91705999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.91566999999999998</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.89798599999999995</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.91679999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.91605999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.91749999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.9163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.91549999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.91510000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87">
+        <v>0.89275000000000004</v>
+      </c>
+      <c r="C87">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="D87">
+        <v>0.91439999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="C90">
+        <v>0.914157</v>
+      </c>
+      <c r="D90">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="E90">
+        <v>0.94399999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928C416-4FBE-EA4A-89A4-542AF3B1CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0345F59C-209D-3B43-9E1B-9282B96AA6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="3060" windowWidth="30380" windowHeight="19240" activeTab="4" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="7320" yWindow="3520" windowWidth="30380" windowHeight="19240" activeTab="4" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="87">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>lr 1e-5 phft</t>
+  </si>
+  <si>
+    <t>FINAL</t>
   </si>
 </sst>
 </file>
@@ -3463,7 +3466,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F37ED471-496A-1446-BC89-7534D3463F3C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="219" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="148" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4650,7 +4653,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669635" cy="6286210"/>
+    <xdr:ext cx="8675473" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6050,10 +6053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667A3AE2-AF9E-0C45-A289-E5DFD881FFDB}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6063,10 +6066,11 @@
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>62</v>
       </c>
@@ -6086,16 +6090,19 @@
         <v>61</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -6122,13 +6129,16 @@
         <v>0.95520000000000005</v>
       </c>
       <c r="I2">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="J2">
         <v>0.95189999999999997</v>
       </c>
-      <c r="J2">
-        <v>0.94450000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0.95189999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -6152,10 +6162,13 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="H3" s="8">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -6178,11 +6191,14 @@
       <c r="G4" s="8">
         <v>0.91659999999999997</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="I4" s="8">
         <v>0.91659999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -6206,10 +6222,13 @@
         <v>0.914157</v>
       </c>
       <c r="H5" s="8">
+        <v>0.9143</v>
+      </c>
+      <c r="I5" s="8">
         <v>0.914157</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -6233,7 +6252,21 @@
         <v>0.90390000000000004</v>
       </c>
       <c r="H6" s="8">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="I6" s="8">
         <v>0.90390000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.9143</v>
+      </c>
+      <c r="L11">
+        <v>0.93220000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6243,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6924,6 +6957,34 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="C93">
+        <v>0.9143</v>
+      </c>
+      <c r="D93">
+        <v>0.93220000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0345F59C-209D-3B43-9E1B-9282B96AA6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E50048-50D4-0A46-91BA-C2FECB9F442D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="3520" windowWidth="30380" windowHeight="19240" activeTab="4" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="62560" yWindow="11880" windowWidth="30380" windowHeight="19240" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="91">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -345,7 +345,19 @@
     <t>lr 1e-5 phft</t>
   </si>
   <si>
-    <t>FINAL</t>
+    <t>Vineyards</t>
+  </si>
+  <si>
+    <t>Supervised Final</t>
+  </si>
+  <si>
+    <t>FINAL (5e-5, do 5)</t>
+  </si>
+  <si>
+    <t>TOM</t>
+  </si>
+  <si>
+    <t>MARIA</t>
   </si>
 </sst>
 </file>
@@ -391,7 +403,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +422,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +456,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,7 +1100,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SimpleTable!$E$2:$E$6</c:f>
+              <c:f>SimpleTable!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1499,7 +1519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SimpleTable!$F$2:$F$6</c:f>
+              <c:f>SimpleTable!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4979,10 +4999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6041,8 +6061,452 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f>COUNT(A2:A61)*644</f>
-        <v>38640</v>
+        <v>38.625</v>
+      </c>
+      <c r="B62">
+        <v>-121.375</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>38.625</v>
+      </c>
+      <c r="B63">
+        <v>-121.625</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>38.625</v>
+      </c>
+      <c r="B64">
+        <v>-121.875</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>38.625</v>
+      </c>
+      <c r="B65">
+        <v>-122.125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>38.875</v>
+      </c>
+      <c r="B66">
+        <v>-121.375</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>38.875</v>
+      </c>
+      <c r="B67">
+        <v>-121.625</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>38.875</v>
+      </c>
+      <c r="B68">
+        <v>-121.875</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>38.875</v>
+      </c>
+      <c r="B69">
+        <v>-122.125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>39.125</v>
+      </c>
+      <c r="B70">
+        <v>-121.375</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>39.125</v>
+      </c>
+      <c r="B71">
+        <v>-121.625</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>39.125</v>
+      </c>
+      <c r="B72">
+        <v>-121.875</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>39.125</v>
+      </c>
+      <c r="B73">
+        <v>-122.125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>39.375</v>
+      </c>
+      <c r="B74">
+        <v>-121.375</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>39.375</v>
+      </c>
+      <c r="B75">
+        <v>-121.625</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>39.375</v>
+      </c>
+      <c r="B76">
+        <v>-121.875</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>39.375</v>
+      </c>
+      <c r="B77">
+        <v>-122.125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>39.625</v>
+      </c>
+      <c r="B78">
+        <v>-121.375</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>39.625</v>
+      </c>
+      <c r="B79">
+        <v>-121.625</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>39.625</v>
+      </c>
+      <c r="B80">
+        <v>-121.875</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>39.625</v>
+      </c>
+      <c r="B81">
+        <v>-122.125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>39.875</v>
+      </c>
+      <c r="B82">
+        <v>-121.375</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>39.875</v>
+      </c>
+      <c r="B83">
+        <v>-121.625</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>39.875</v>
+      </c>
+      <c r="B84">
+        <v>-121.875</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>39.875</v>
+      </c>
+      <c r="B85">
+        <v>-122.125</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>32.625</v>
+      </c>
+      <c r="B86">
+        <v>-115.875</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>32.625</v>
+      </c>
+      <c r="B87">
+        <v>-115.625</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>32.625</v>
+      </c>
+      <c r="B88">
+        <v>-115.375</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>32.625</v>
+      </c>
+      <c r="B89">
+        <v>-115.125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>32.875</v>
+      </c>
+      <c r="B90">
+        <v>-115.875</v>
+      </c>
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>32.875</v>
+      </c>
+      <c r="B91">
+        <v>-115.625</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>32.875</v>
+      </c>
+      <c r="B92">
+        <v>-115.375</v>
+      </c>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>32.875</v>
+      </c>
+      <c r="B93">
+        <v>-115.125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>33.125</v>
+      </c>
+      <c r="B94">
+        <v>-115.875</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>33.125</v>
+      </c>
+      <c r="B95">
+        <v>-115.625</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>33.125</v>
+      </c>
+      <c r="B96">
+        <v>-115.375</v>
+      </c>
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>33.125</v>
+      </c>
+      <c r="B97">
+        <v>-115.125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6053,24 +6517,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667A3AE2-AF9E-0C45-A289-E5DFD881FFDB}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="58.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>62</v>
       </c>
@@ -6081,28 +6546,31 @@
         <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -6116,29 +6584,32 @@
       <c r="D2">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F2">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.9677</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.94710000000000005</v>
-      </c>
-      <c r="H2">
-        <v>0.95520000000000005</v>
       </c>
       <c r="I2">
         <v>0.95520000000000005</v>
       </c>
-      <c r="J2">
-        <v>0.95189999999999997</v>
+      <c r="J2" s="10">
+        <v>0.95520000000000005</v>
       </c>
       <c r="K2">
         <v>0.95189999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>0.95189999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -6152,23 +6623,26 @@
       <c r="D3">
         <v>0.96499999999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F3">
         <v>0.94</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>0.94399999999999995</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.94740000000000002</v>
       </c>
       <c r="I3" s="8">
         <v>0.94740000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="11">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -6182,23 +6656,26 @@
       <c r="D4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E4">
-        <v>0.92</v>
+      <c r="E4" s="10">
+        <v>0.92649999999999999</v>
       </c>
       <c r="F4">
         <v>0.92</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4">
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="8">
         <v>0.91659999999999997</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.93220000000000003</v>
       </c>
-      <c r="I4" s="8">
-        <v>0.91659999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="11">
+        <v>0.92989999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -6212,23 +6689,26 @@
       <c r="D5">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E5">
-        <v>0.91900000000000004</v>
+      <c r="E5" s="10">
+        <v>0.88990000000000002</v>
       </c>
       <c r="F5">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.914157</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0.9143</v>
       </c>
-      <c r="I5" s="8">
-        <v>0.914157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="11">
+        <v>0.91269999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -6242,31 +6722,59 @@
       <c r="D6">
         <v>0.70099999999999996</v>
       </c>
-      <c r="E6">
-        <v>0.91400000000000003</v>
+      <c r="E6" s="10">
+        <v>0.83399999999999996</v>
       </c>
       <c r="F6">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H6" s="8">
         <v>0.90390000000000004</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.90390000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11">
         <v>0.90190000000000003</v>
       </c>
-      <c r="I6" s="8">
-        <v>0.90390000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J11">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.9143</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.93220000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.8508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.6885</v>
+      </c>
+      <c r="H13">
+        <v>0.84299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6278,7 +6786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B93" sqref="B93:D93"/>
     </sheetView>
   </sheetViews>

--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E50048-50D4-0A46-91BA-C2FECB9F442D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A2AF2-7D3E-1B49-B1DD-A5CF8306DBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62560" yWindow="11880" windowWidth="30380" windowHeight="19240" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="62540" yWindow="11880" windowWidth="30380" windowHeight="19240" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="91">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -5001,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6179,7 +6179,10 @@
         <v>-121.375</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6218,7 +6221,10 @@
         <v>-122.125</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -6231,6 +6237,9 @@
       <c r="C74" t="s">
         <v>89</v>
       </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -6268,7 +6277,10 @@
         <v>-122.125</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,7 +6325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>39.625</v>
       </c>
@@ -6327,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>39.875</v>
       </c>
@@ -6337,8 +6349,11 @@
       <c r="C82" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>39.875</v>
       </c>
@@ -6352,7 +6367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>39.875</v>
       </c>
@@ -6366,7 +6381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>39.875</v>
       </c>
@@ -6376,8 +6391,14 @@
       <c r="C85" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>32.625</v>
       </c>
@@ -6388,7 +6409,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>32.625</v>
       </c>
@@ -6399,7 +6420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>32.625</v>
       </c>
@@ -6410,7 +6431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>32.625</v>
       </c>
@@ -6421,7 +6442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>32.875</v>
       </c>
@@ -6432,7 +6453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>32.875</v>
       </c>
@@ -6443,7 +6464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>32.875</v>
       </c>
@@ -6454,7 +6475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>32.875</v>
       </c>
@@ -6465,7 +6486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>33.125</v>
       </c>
@@ -6476,7 +6497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>33.125</v>
       </c>
@@ -6487,7 +6508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>33.125</v>
       </c>

--- a/images/ca_data_collection.xlsx
+++ b/images/ca_data_collection.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Desktop/MIDS_TPG/W210/capstone_fall20_irrigation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A2AF2-7D3E-1B49-B1DD-A5CF8306DBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B18CD-0936-0E4C-B723-83E3D86C4215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62540" yWindow="11880" windowWidth="30380" windowHeight="19240" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
+    <workbookView xWindow="10240" yWindow="3520" windowWidth="36940" windowHeight="19240" activeTab="5" xr2:uid="{BDD5E030-342C-6246-AA44-B5823F365658}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Data_Collection" sheetId="1" r:id="rId1"/>
     <sheet name="ValidationAUC" sheetId="3" r:id="rId2"/>
     <sheet name="ScatterPlot" sheetId="5" r:id="rId3"/>
-    <sheet name="BarChart" sheetId="6" r:id="rId4"/>
-    <sheet name="SimpleTable" sheetId="4" r:id="rId5"/>
-    <sheet name="Sensitivities" sheetId="2" r:id="rId6"/>
+    <sheet name="Sensitivities" sheetId="2" r:id="rId4"/>
+    <sheet name="BarChart" sheetId="6" r:id="rId5"/>
+    <sheet name="SimpleTable" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="93">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>MARIA</t>
+  </si>
+  <si>
+    <t>CA18A50T1- Finetuned with BEN Data - BS64 -  5e-5</t>
+  </si>
+  <si>
+    <t>CA18A50T1- Finetuned with BEN Data - BS32-  5e-5</t>
   </si>
 </sst>
 </file>
@@ -5001,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11D730-724F-C64E-B450-810506062CA1}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A67" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6325,7 +6331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>39.625</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>39.875</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>39.875</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>39.875</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>39.875</v>
       </c>
@@ -6394,11 +6400,8 @@
       <c r="D85" t="s">
         <v>13</v>
       </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>32.625</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>32.625</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>32.625</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>32.625</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>32.875</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>32.875</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>32.875</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>32.875</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>33.125</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>33.125</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>33.125</v>
       </c>
@@ -6537,11 +6540,728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
+  <dimension ref="A1:E93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:D93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="96.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.91902399999999995</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.8972</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.91690000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.91390000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.89690000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0.8992</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.91255799999999998</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.91705999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.91566999999999998</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.89798599999999995</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.91679999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.91605999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.91749999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.9163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.91549999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.91510000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87">
+        <v>0.89275000000000004</v>
+      </c>
+      <c r="C87">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="D87">
+        <v>0.91439999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="C90">
+        <v>0.914157</v>
+      </c>
+      <c r="D90">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="E90">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="C93">
+        <v>0.9143</v>
+      </c>
+      <c r="D93">
+        <v>0.93220000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667A3AE2-AF9E-0C45-A289-E5DFD881FFDB}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6554,9 +7274,10 @@
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>62</v>
       </c>
@@ -6590,8 +7311,14 @@
       <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -6630,7 +7357,7 @@
         <v>0.95189999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -6663,7 +7390,7 @@
         <v>0.94740000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -6695,8 +7422,11 @@
       <c r="J4" s="11">
         <v>0.92989999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="8">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -6728,8 +7458,11 @@
       <c r="J5" s="11">
         <v>0.91269999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" s="8">
+        <v>0.91010000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -6761,8 +7494,11 @@
       <c r="J6" s="11">
         <v>0.90390000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="8">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -6776,7 +7512,7 @@
         <v>0.93220000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>128</v>
       </c>
@@ -6787,7 +7523,7 @@
         <v>0.8508</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>32</v>
       </c>
@@ -6801,721 +7537,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC90CD-1B1D-A349-9236-A951D1CE880F}">
-  <dimension ref="A1:E93"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:D93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="96.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>0.70099999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="7">
-        <v>0.91902399999999995</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.8972</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.83379999999999999</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0.91690000000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0.89549999999999996</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0.89770000000000005</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.91390000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="7">
-        <v>0.89490000000000003</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="7">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="7">
-        <v>0.90139999999999998</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="7">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="7">
-        <v>0.89690000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="7">
-        <v>0.8992</v>
-      </c>
-      <c r="C75" s="7">
-        <v>0.91255799999999998</v>
-      </c>
-      <c r="D75" s="7">
-        <v>0.91705999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="7">
-        <v>0.89759999999999995</v>
-      </c>
-      <c r="C76" s="7">
-        <v>0.91566999999999998</v>
-      </c>
-      <c r="D76" s="7">
-        <v>0.91879999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="7">
-        <v>0.89798599999999995</v>
-      </c>
-      <c r="C77" s="7">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D77" s="7">
-        <v>0.91679999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="7">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="C78" s="7">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="D78" s="7">
-        <v>0.91605999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="7">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="C79" s="7">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D79" s="7">
-        <v>0.91749999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="7">
-        <v>0.89459999999999995</v>
-      </c>
-      <c r="C80" s="7">
-        <v>0.91149999999999998</v>
-      </c>
-      <c r="D80" s="7">
-        <v>0.9163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="7">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="C81" s="7">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="D81" s="7">
-        <v>0.91549999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="7">
-        <v>0.89370000000000005</v>
-      </c>
-      <c r="C82" s="7">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="D82" s="7">
-        <v>0.91879999999999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="7">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="C83" s="7">
-        <v>0.91749999999999998</v>
-      </c>
-      <c r="D83" s="7">
-        <v>0.91510000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87">
-        <v>0.89275000000000004</v>
-      </c>
-      <c r="C87">
-        <v>0.91290000000000004</v>
-      </c>
-      <c r="D87">
-        <v>0.91439999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" t="s">
-        <v>77</v>
-      </c>
-      <c r="E89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90">
-        <v>0.90390000000000004</v>
-      </c>
-      <c r="C90">
-        <v>0.914157</v>
-      </c>
-      <c r="D90">
-        <v>0.91659999999999997</v>
-      </c>
-      <c r="E90">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="C93">
-        <v>0.9143</v>
-      </c>
-      <c r="D93">
-        <v>0.93220000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>